--- a/inst/extdata/tecan_time_series_single_reads.xlsx
+++ b/inst/extdata/tecan_time_series_single_reads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/polybox/PhD/Bioinformatics/Rpackages/tecanr/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/polybox/PhD/Science/Software/tecanr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B80E45A-C8B5-2643-AACE-47FA35CB385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33677D9-5FD4-6844-8BEF-D4481E01159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="500" windowWidth="22400" windowHeight="12340" xr2:uid="{C7A1EB4F-635E-41E8-88D5-9F24816026F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{C7A1EB4F-635E-41E8-88D5-9F24816026F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9219A018-344E-4124-B089-F48D7A7AC90A}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,17 +832,17 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1.1574074074074073E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -880,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -907,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -915,7 +915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -934,8 +934,17 @@
       <c r="F31" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="5">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
